--- a/Konstruktionslehre/Dokumente/Bewertungsshema.xlsx
+++ b/Konstruktionslehre/Dokumente/Bewertungsshema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Konstruktionslehre\Konstruktionslehre\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F92149-7289-4FDF-8465-7AF641A38D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693801C1-DFBE-4EE4-8359-5DED0D1DEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,23 +220,23 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,732 +532,732 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="5" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>0.15</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <f>G3*C3</f>
         <v>0.75</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <f>J3*C3</f>
         <v>0.75</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>5</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <f>M3*C3</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>0.03</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H16" si="0">G4*C4</f>
         <v>0.09</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <f t="shared" ref="K4:K16" si="1">J4*C4</f>
         <v>0.06</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <f t="shared" ref="N4:N16" si="2">M4*C4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>0.03</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>0.1</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>5</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>3</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <f t="shared" si="2"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>0.11</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>4</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>0.44</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <f t="shared" si="2"/>
         <v>0.22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>0.05</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>4</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <v>5</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>0.08</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="8">
         <v>4</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>0.2</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="8">
         <v>5</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>4</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>0.04</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>3</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <v>3</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>0.02</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>3</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="2">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>3</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <f t="shared" si="2"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>0.08</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>0.03</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>3</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="2">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>0.04</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="1">
         <v>4</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <f t="shared" si="2"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>0.04</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="8">
         <v>4</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="1">
         <v>2</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2">
         <f>SUM(C3:C16)</f>
         <v>1</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1">
         <f>SUM(G3:G16)</f>
         <v>47</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <f>SUM(H3:H16)</f>
         <v>3.8200000000000007</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="3">
+      <c r="I17" s="3"/>
+      <c r="J17" s="1">
         <f>SUM(J3:J16)</f>
         <v>48</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="2">
         <f>SUM(K3:K16)</f>
         <v>4.01</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="3">
+      <c r="L17" s="3"/>
+      <c r="M17" s="1">
         <f>SUM(M3:M16)</f>
         <v>31</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <f>SUM(N3:N16)</f>
         <v>2.7600000000000007</v>
       </c>
@@ -1271,6 +1271,6 @@
     <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Konstruktionslehre/Dokumente/Bewertungsshema.xlsx
+++ b/Konstruktionslehre/Dokumente/Bewertungsshema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Büro\Documents\GitHub\Konstruktionslehre\Konstruktionslehre\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693801C1-DFBE-4EE4-8359-5DED0D1DEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55A83E7-7A4A-458E-84C4-6C4552F46A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>Nr.</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>sehr gering</t>
+  </si>
+  <si>
+    <t>Wert in %</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -214,16 +217,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -235,6 +259,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,80 +562,81 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -607,39 +650,39 @@
       <c r="C3" s="2">
         <v>0.15</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2">
         <f>G3*C3</f>
-        <v>0.75</v>
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="K3" s="2">
         <f>J3*C3</f>
-        <v>0.75</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M3" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="N3" s="2">
         <f>M3*C3</f>
-        <v>0.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -649,32 +692,32 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.03</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H16" si="0">G4*C4</f>
-        <v>0.09</v>
+        <f>G4*C4</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K16" si="1">J4*C4</f>
-        <v>0.06</v>
+        <f>J4*C4</f>
+        <v>1.2</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>31</v>
@@ -683,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N4:N16" si="2">M4*C4</f>
+        <f>M4*C4</f>
         <v>0</v>
       </c>
     </row>
@@ -697,39 +740,39 @@
       <c r="C5" s="2">
         <v>0.03</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
+        <f>G5*C5</f>
+        <v>1.2</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.06</v>
+        <f>J5*C5</f>
+        <v>1.2</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N5" s="2">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
+        <f>M5*C5</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -742,39 +785,39 @@
       <c r="C6" s="2">
         <v>0.1</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <f>G6*C6</f>
+        <v>6</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="8">
-        <v>5</v>
+      <c r="J6" s="7">
+        <v>100</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>J6*C6</f>
+        <v>10</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M6" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
+        <f>M6*C6</f>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -787,37 +830,39 @@
       <c r="C7" s="2">
         <v>0.11</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.44</v>
+        <f>G7*C7</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="8">
-        <v>4</v>
+      <c r="J7" s="7">
+        <v>80</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.44</v>
+        <f>J7*C7</f>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N7" s="2">
-        <f t="shared" si="2"/>
-        <v>0.22</v>
+        <f>M7*C7</f>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -830,39 +875,39 @@
       <c r="C8" s="2">
         <v>0.05</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="1">
+        <v>80</v>
+      </c>
+      <c r="H8" s="2">
+        <f>G8*C8</f>
         <v>4</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
+        <v>100</v>
+      </c>
+      <c r="K8" s="2">
+        <f>J8*C8</f>
         <v>5</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="1">
+        <v>20</v>
+      </c>
+      <c r="N8" s="2">
+        <f>M8*C8</f>
         <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -875,39 +920,39 @@
       <c r="C9" s="2">
         <v>0.08</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
+        <f>G9*C9</f>
+        <v>4.8</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="8">
-        <v>4</v>
+      <c r="J9" s="7">
+        <v>80</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.32</v>
+        <f>J9*C9</f>
+        <v>6.4</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
+        <f>M9*C9</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -920,39 +965,39 @@
       <c r="C10" s="2">
         <v>0.2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E10" s="9"/>
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>G10*C10</f>
+        <v>20</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="8">
-        <v>5</v>
+      <c r="J10" s="7">
+        <v>100</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>J10*C10</f>
+        <v>20</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="1">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f>M10*C10</f>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -965,39 +1010,39 @@
       <c r="C11" s="2">
         <v>0.04</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E11" s="9"/>
       <c r="F11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
+        <f>G11*C11</f>
+        <v>1.6</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="8">
-        <v>2</v>
+      <c r="J11" s="7">
+        <v>40</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
+        <f>J11*C11</f>
+        <v>1.6</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M11" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
+        <f>M11*C11</f>
+        <v>2.4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1010,39 +1055,39 @@
       <c r="C12" s="2">
         <v>0.02</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E12" s="9"/>
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="1">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
+        <f>G12*C12</f>
+        <v>1.6</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="8">
-        <v>3</v>
+      <c r="J12" s="7">
+        <v>60</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.06</v>
+        <f>J12*C12</f>
+        <v>1.2</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M12" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="2"/>
-        <v>0.06</v>
+        <f>M12*C12</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1055,39 +1100,39 @@
       <c r="C13" s="2">
         <v>0.08</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
+        <f>G13*C13</f>
+        <v>4.8</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="8">
-        <v>2</v>
+      <c r="J13" s="7">
+        <v>40</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16</v>
+        <f>J13*C13</f>
+        <v>3.2</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
+        <f>M13*C13</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1100,39 +1145,39 @@
       <c r="C14" s="2">
         <v>0.03</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
+        <f>G14*C14</f>
+        <v>1.2</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="8">
-        <v>3</v>
+      <c r="J14" s="7">
+        <v>60</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.09</v>
+        <f>J14*C14</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
+        <f>M14*C14</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1145,39 +1190,39 @@
       <c r="C15" s="2">
         <v>0.04</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
+        <f>G15*C15</f>
+        <v>0.8</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="8">
-        <v>2</v>
+      <c r="J15" s="7">
+        <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
+        <f>J15*C15</f>
+        <v>1.6</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="1">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.16</v>
+        <f>M15*C15</f>
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1190,39 +1235,39 @@
       <c r="C16" s="2">
         <v>0.04</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="1">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
+        <f>G16*C16</f>
+        <v>3.2</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="8">
-        <v>4</v>
+      <c r="J16" s="7">
+        <v>80</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.16</v>
+        <f>J16*C16</f>
+        <v>3.2</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="M16" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
+        <f>M16*C16</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1237,33 +1282,48 @@
       <c r="F17" s="3"/>
       <c r="G17" s="1">
         <f>SUM(G3:G16)</f>
-        <v>47</v>
+        <v>900</v>
       </c>
       <c r="H17" s="2">
         <f>SUM(H3:H16)</f>
-        <v>3.8200000000000007</v>
+        <v>74.8</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="1">
         <f>SUM(J3:J16)</f>
-        <v>48</v>
+        <v>960</v>
       </c>
       <c r="K17" s="2">
         <f>SUM(K3:K16)</f>
-        <v>4.01</v>
+        <v>80.199999999999989</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="1">
         <f>SUM(M3:M16)</f>
-        <v>31</v>
+        <v>620</v>
       </c>
       <c r="N17" s="2">
         <f>SUM(N3:N16)</f>
-        <v>2.7600000000000007</v>
+        <v>55.20000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="20">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:H1"/>
